--- a/TestFramework/lib/config/data/Test_Data.xlsx
+++ b/TestFramework/lib/config/data/Test_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PageObject_Data_Driven_Framework\lib\config\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tareque.Alam\Documents\GitHub\SampleApp\TestFramework\lib\config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4464"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Login_info" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>hugo@domain.com</t>
-  </si>
-  <si>
-    <t>victor@domain.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>smith way</t>
+  </si>
+  <si>
+    <t>js@test.com</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Jane  street</t>
+  </si>
+  <si>
+    <t>mj@test.com</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Ray street</t>
+  </si>
+  <si>
+    <t>wr@test.com</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -80,9 +140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,46 +429,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
